--- a/PricerAndQutation/OptionPricer_v2_20171201.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20171201.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -1326,6 +1326,9 @@
     <xf numFmtId="14" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,20 +1338,17 @@
     <xf numFmtId="14" fontId="21" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1379,7 +1379,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>530.5</v>
+        <v>546.5</v>
         <stp/>
         <stp>i1801</stp>
         <stp>LastPrice</stp>
@@ -1387,14 +1387,14 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>6148</v>
+        <v>6182</v>
         <stp/>
         <stp>SR805</stp>
         <stp>LastPrice</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>3982</v>
+        <v>4069</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -2365,9 +2365,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:H12"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2379,10 +2379,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="111"/>
+      <c r="C1" s="113"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
@@ -2412,30 +2412,30 @@
       <c r="T3" s="110"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="G4" s="106" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="G4" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="L4" s="106" t="s">
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="L4" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="Q4" s="106" t="s">
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="Q4" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="46" t="s">
@@ -2444,10 +2444,10 @@
       <c r="C5" s="47"/>
       <c r="D5" s="48"/>
       <c r="E5" s="49"/>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="109"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="48"/>
       <c r="J5" s="49"/>
       <c r="L5" s="46" t="s">
@@ -2456,10 +2456,10 @@
       <c r="M5" s="47"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
-      <c r="Q5" s="109" t="s">
+      <c r="Q5" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="109"/>
+      <c r="R5" s="106"/>
       <c r="S5" s="48"/>
       <c r="T5" s="49"/>
     </row>
@@ -2472,10 +2472,10 @@
         <v>125</v>
       </c>
       <c r="E6" s="101"/>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="109"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
       <c r="L6" s="99" t="s">
@@ -2486,10 +2486,10 @@
         <v>125</v>
       </c>
       <c r="O6" s="101"/>
-      <c r="Q6" s="109" t="s">
+      <c r="Q6" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="109"/>
+      <c r="R6" s="106"/>
       <c r="S6" s="100"/>
       <c r="T6" s="101"/>
     </row>
@@ -2502,10 +2502,10 @@
         <v>125</v>
       </c>
       <c r="E7" s="101"/>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="109"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="100"/>
       <c r="J7" s="101"/>
       <c r="L7" s="99" t="s">
@@ -2516,10 +2516,10 @@
         <v>125</v>
       </c>
       <c r="O7" s="101"/>
-      <c r="Q7" s="109" t="s">
+      <c r="Q7" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="109"/>
+      <c r="R7" s="106"/>
       <c r="S7" s="100"/>
       <c r="T7" s="101"/>
     </row>
@@ -2533,10 +2533,10 @@
         <v>305000</v>
       </c>
       <c r="E8" s="101"/>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="109"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="100"/>
       <c r="J8" s="101"/>
       <c r="L8" s="99" t="s">
@@ -2548,10 +2548,10 @@
         <v>305000</v>
       </c>
       <c r="O8" s="101"/>
-      <c r="Q8" s="109" t="s">
+      <c r="Q8" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="109"/>
+      <c r="R8" s="106"/>
       <c r="S8" s="100"/>
       <c r="T8" s="101"/>
     </row>
@@ -2564,10 +2564,10 @@
         <v>132</v>
       </c>
       <c r="E9" s="101"/>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="109"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="100"/>
       <c r="J9" s="101"/>
       <c r="L9" s="99" t="s">
@@ -2578,10 +2578,10 @@
         <v>132</v>
       </c>
       <c r="O9" s="101"/>
-      <c r="Q9" s="109" t="s">
+      <c r="Q9" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="109"/>
+      <c r="R9" s="106"/>
       <c r="S9" s="100"/>
       <c r="T9" s="101"/>
     </row>
@@ -2624,10 +2624,10 @@
         <v>3935</v>
       </c>
       <c r="E11" s="101"/>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="109"/>
+      <c r="H11" s="106"/>
       <c r="I11" s="100"/>
       <c r="J11" s="101"/>
       <c r="L11" s="99" t="s">
@@ -2638,10 +2638,10 @@
         <v>3935</v>
       </c>
       <c r="O11" s="101"/>
-      <c r="Q11" s="109" t="s">
+      <c r="Q11" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="109"/>
+      <c r="R11" s="106"/>
       <c r="S11" s="100"/>
       <c r="T11" s="101"/>
     </row>
@@ -2654,10 +2654,10 @@
         <v>3800</v>
       </c>
       <c r="E12" s="101"/>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="109"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="100"/>
       <c r="J12" s="101"/>
       <c r="L12" s="99" t="s">
@@ -2668,10 +2668,10 @@
         <v>3800</v>
       </c>
       <c r="O12" s="101"/>
-      <c r="Q12" s="109" t="s">
+      <c r="Q12" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="109"/>
+      <c r="R12" s="106"/>
       <c r="S12" s="100"/>
       <c r="T12" s="101"/>
     </row>
@@ -2684,10 +2684,10 @@
         <v>61</v>
       </c>
       <c r="E13" s="101"/>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="109"/>
+      <c r="H13" s="106"/>
       <c r="I13" s="100"/>
       <c r="J13" s="101"/>
       <c r="L13" s="99" t="s">
@@ -2698,10 +2698,10 @@
         <v>3800</v>
       </c>
       <c r="O13" s="101"/>
-      <c r="Q13" s="109" t="s">
+      <c r="Q13" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="109"/>
+      <c r="R13" s="106"/>
       <c r="S13" s="100"/>
       <c r="T13" s="101"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>143</v>
       </c>
       <c r="E14" s="101"/>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="109"/>
+      <c r="H14" s="106"/>
       <c r="I14" s="44"/>
       <c r="J14" s="45"/>
       <c r="L14" s="99" t="s">
@@ -2728,10 +2728,10 @@
         <v>61</v>
       </c>
       <c r="O14" s="101"/>
-      <c r="Q14" s="109" t="s">
+      <c r="Q14" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="109"/>
+      <c r="R14" s="106"/>
       <c r="S14" s="100"/>
       <c r="T14" s="101"/>
     </row>
@@ -2744,10 +2744,10 @@
         <v>5000</v>
       </c>
       <c r="E15" s="101"/>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="109"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="100"/>
       <c r="J15" s="101"/>
       <c r="L15" s="99" t="s">
@@ -2758,10 +2758,10 @@
         <v>143</v>
       </c>
       <c r="O15" s="101"/>
-      <c r="Q15" s="109" t="s">
+      <c r="Q15" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="109"/>
+      <c r="R15" s="106"/>
       <c r="S15" s="89"/>
       <c r="T15" s="90"/>
     </row>
@@ -2774,10 +2774,10 @@
         <v>148</v>
       </c>
       <c r="E16" s="104"/>
-      <c r="G16" s="113" t="s">
+      <c r="G16" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="113"/>
+      <c r="H16" s="111"/>
       <c r="I16" s="103"/>
       <c r="J16" s="104"/>
       <c r="L16" s="99" t="s">
@@ -2788,10 +2788,10 @@
         <v>5000</v>
       </c>
       <c r="O16" s="101"/>
-      <c r="Q16" s="109" t="s">
+      <c r="Q16" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="109"/>
+      <c r="R16" s="106"/>
       <c r="S16" s="100"/>
       <c r="T16" s="101"/>
     </row>
@@ -2804,10 +2804,10 @@
         <v>148</v>
       </c>
       <c r="O17" s="104"/>
-      <c r="Q17" s="113" t="s">
+      <c r="Q17" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="113"/>
+      <c r="R17" s="111"/>
       <c r="S17" s="103"/>
       <c r="T17" s="104"/>
     </row>
@@ -2818,36 +2818,36 @@
       </c>
     </row>
     <row r="21" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="G21" s="106" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="G21" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
     </row>
     <row r="22" spans="2:20" ht="14.25" thickTop="1">
       <c r="B22" s="46" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="47"/>
-      <c r="D22" s="107">
+      <c r="D22" s="108">
         <v>43070</v>
       </c>
-      <c r="E22" s="108"/>
+      <c r="E22" s="109"/>
       <c r="G22" s="46" t="s">
         <v>122</v>
       </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="107">
+      <c r="I22" s="108">
         <v>43070</v>
       </c>
-      <c r="J22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="23" spans="2:20" ht="13.5">
       <c r="B23" s="99" t="s">
@@ -3052,97 +3052,34 @@
     <row r="34" spans="2:10" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
@@ -3166,39 +3103,102 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3210,8 +3210,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3234,10 +3234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="111"/>
+      <c r="C1" s="113"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -3373,18 +3373,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3982</v>
+        <v>4069</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" ref="J8:J14" ca="1" si="1">TODAY()</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" ref="K8:K14" ca="1" si="2">J8+L8</f>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -3401,30 +3401,30 @@
       </c>
       <c r="P8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-243.32204060914773</v>
+        <v>-309.46479240969393</v>
       </c>
       <c r="Q8" s="25">
         <v>80</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R13" si="3">Q8/10000*M8*H8</f>
-        <v>2.6183013698630138</v>
+        <v>2.6755068493150684</v>
       </c>
       <c r="S8" s="24">
         <f t="shared" ref="S8:S13" si="4">IF(P8&lt;=0,ABS(P8)+R8,P8-R8)</f>
-        <v>245.94034197901075</v>
+        <v>312.140299259009</v>
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T13" si="5">S8/H8</f>
-        <v>6.1763019080615461E-2</v>
+        <v>7.6711796328092649E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-0.72019559561340429</v>
+        <v>-0.79773977117838513</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-3.8268213856749753</v>
+        <v>-3.2688823914065779</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3456,11 +3456,11 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43140</v>
+        <v>43143</v>
       </c>
       <c r="L9" s="10">
         <v>70</v>
@@ -3523,19 +3523,19 @@
       </c>
       <c r="H10" s="11">
         <f>RTD("wdf.rtq",,F10,"LastPrice")</f>
-        <v>6148</v>
+        <v>6182</v>
       </c>
       <c r="I10" s="11">
         <f>H10</f>
-        <v>6148</v>
+        <v>6182</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43160</v>
+        <v>43163</v>
       </c>
       <c r="L10" s="10">
         <v>90</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="P10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-179.32507081698122</v>
+        <v>-180.31678396073175</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -3563,19 +3563,19 @@
       </c>
       <c r="S10" s="13">
         <f t="shared" si="4"/>
-        <v>179.32507081698122</v>
+        <v>180.31678396073175</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" si="5"/>
-        <v>2.9168033639717181E-2</v>
+        <v>2.9168033639717202E-2</v>
       </c>
       <c r="U10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-0.51212433334058005</v>
+        <v>-0.51212433336331742</v>
       </c>
       <c r="V10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-12.111093947258041</v>
+        <v>-12.178071369868348</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3598,18 +3598,18 @@
       </c>
       <c r="H11" s="11">
         <f>RTD("wdf.rtq",,F11,"LastPrice")</f>
-        <v>530.5</v>
+        <v>546.5</v>
       </c>
       <c r="I11" s="10">
         <v>535</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43084</v>
+        <v>43087</v>
       </c>
       <c r="L11" s="10">
         <v>14</v>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="P11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>9.5340780877270674</v>
+        <v>18.442623160400331</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -3637,19 +3637,19 @@
       </c>
       <c r="S11" s="13">
         <f t="shared" si="4"/>
-        <v>9.5340780877270674</v>
+        <v>18.442623160400331</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="5"/>
-        <v>1.7971871984405405E-2</v>
+        <v>3.3746794438060987E-2</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>0.44927770977807313</v>
+        <v>0.66051337008730115</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>0.41085833984597286</v>
+        <v>0.39138289335986087</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -3678,11 +3678,11 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43080</v>
+        <v>43083</v>
       </c>
       <c r="L12" s="10">
         <v>10</v>
@@ -3745,18 +3745,18 @@
       </c>
       <c r="H13" s="11">
         <f>RTD("wdf.rtq",,F13,"LastPrice")</f>
-        <v>530.5</v>
+        <v>546.5</v>
       </c>
       <c r="I13" s="10">
         <v>535</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43084</v>
+        <v>43087</v>
       </c>
       <c r="L13" s="10">
         <v>14</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="P13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G13,$H13,$I13,$M13,$C$3,$N13,$O13,$C$4)*E13</f>
-        <v>8.6824359620746066</v>
+        <v>17.636421622401315</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
@@ -3784,19 +3784,19 @@
       </c>
       <c r="S13" s="13">
         <f t="shared" si="4"/>
-        <v>8.6824359620746066</v>
+        <v>17.636421622401315</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" si="5"/>
-        <v>1.6366514537369665E-2</v>
+        <v>3.2271585768346413E-2</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G13,$H13,$I13,$M13,$C$3,$N13,$O13,$C$4)*E13</f>
-        <v>0.44364679516490924</v>
+        <v>0.67114195313422442</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G13,$H13,$I13,$M13,$C$3,$N13,$O13,$C$4)*E13</f>
-        <v>0.37969062298148515</v>
+        <v>0.35788999855833481</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -3825,11 +3825,11 @@
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43084</v>
+        <v>43087</v>
       </c>
       <c r="L14" s="10">
         <v>14</v>
@@ -4520,7 +4520,7 @@
       <c r="B1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="111"/>
+      <c r="C1" s="113"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="50" t="s">
@@ -4662,11 +4662,11 @@
       </c>
       <c r="J8" s="57">
         <f ca="1">TODAY()</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K8" s="57">
         <f ca="1">J8+L8</f>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="L8" s="55">
         <v>30</v>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="J9" s="65">
         <f t="shared" ref="J9:L10" ca="1" si="0">J8</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K9" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="L9" s="63">
         <f t="shared" si="0"/>
@@ -4797,11 +4797,11 @@
       </c>
       <c r="J10" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K10" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="L10" s="71">
         <f t="shared" si="0"/>
@@ -5578,10 +5578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="111"/>
+      <c r="C1" s="113"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3982</v>
+        <v>4069</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -5746,11 +5746,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -5767,22 +5767,22 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-79.64</v>
+        <v>-81.38</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.6183013698630138</v>
+        <v>2.6755068493150684</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>82.25830136986302</v>
+        <v>84.055506849315066</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>2.0657534246575345E-2</v>
+        <v>2.0657534246575342E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
@@ -5832,11 +5832,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="O9" s="10">
         <v>30</v>
@@ -7693,18 +7693,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3982</v>
+        <v>4069</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -7718,30 +7718,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>245.68535698404276</v>
+        <v>312.13830654891535</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.6183013698630138</v>
+        <v>2.6755068493150684</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>248.30365835390577</v>
+        <v>314.81381339823042</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>6.2356518923632788E-2</v>
+        <v>7.7368840844981676E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.72398530037389719</v>
+        <v>0.8010657908016583</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.8083538547471107</v>
+        <v>3.2453038736218787</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7773,11 +7773,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -7843,11 +7843,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43100</v>
+        <v>43103</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
